--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8869.514222867034</v>
+        <v>1765033.33035054</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8869.514222867034</v>
+        <v>1765033.33035054</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22649.97741123353</v>
+        <v>1369449.461061611</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22649.97741123353</v>
+        <v>1369449.461061611</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189185115.80018</v>
+        <v>47942292.25769708</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11126.53259276736</v>
+        <v>1134641.75234092</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21327.93698155571</v>
+        <v>2110658.95859868</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31529.34137034404</v>
+        <v>3086676.164856442</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42812.97609056357</v>
+        <v>4004052.918211923</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54096.61081078307</v>
+        <v>4921429.671567403</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64597.49900904715</v>
+        <v>5876886.409457289</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75330.23339663511</v>
+        <v>6843596.169707038</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86006.41993316846</v>
+        <v>7799052.907596921</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97114.95790063903</v>
+        <v>8695741.189284027</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108238.9288633031</v>
+        <v>9618275.841569731</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118602.7281920107</v>
+        <v>10601678.82021069</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128923.4862176485</v>
+        <v>11576516.57954069</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139244.2442432864</v>
+        <v>12551354.33887068</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150525.424014011</v>
+        <v>13468731.09222617</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161683.1775763003</v>
+        <v>14362927.89287907</v>
       </c>
     </row>
   </sheetData>
